--- a/biology/Zoologie/Cephalotes_flavigaster/Cephalotes_flavigaster.xlsx
+++ b/biology/Zoologie/Cephalotes_flavigaster/Cephalotes_flavigaster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes flavigaster est une espèce de fourmis arboricoles du genre Cephalotes[1][2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes flavigaster est une espèce de fourmis arboricoles du genre Cephalotes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est native de l'île d'Hispaniola, seul territoire où elle est recensée[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est native de l'île d'Hispaniola, seul territoire où elle est recensée.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[4]. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cephalotes flavigaster a été décrite en 1999 par l'entomologiste brésilienne Maria Lourdes de Andrade (d)[6] dans une publication coécrite avec l'entomologiste italien Cesare Baroni Urbani (d)[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cephalotes flavigaster a été décrite en 1999 par l'entomologiste brésilienne Maria Lourdes de Andrade (d) dans une publication coécrite avec l'entomologiste italien Cesare Baroni Urbani (d).
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, du latin flavi, « fauve, jaune rougeâtre », et gaster, « ventre », fait référence à la teinte spécifique de cette espèce[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, du latin flavi, « fauve, jaune rougeâtre », et gaster, « ventre », fait référence à la teinte spécifique de cette espèce.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Maria L. de Andrade et Cesare Baroni Urbani, « Diversity and adaptation in the ant genus Cephalotes, past and present (Hymenoptera, Formicidae) », Stuttgarter Beiträge zur Naturkunde (B), Musée d'histoire naturelle de Stuttgart, vol. 271,‎ 29 janvier 1999, p. 1-889 (ISSN 0341-0153, lire en ligne)</t>
         </is>
